--- a/Examples/example6.xlsx
+++ b/Examples/example6.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R656fda453b994375"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R70f02d04b9934639"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -74,7 +74,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T16:57:54</x:v>
+        <x:v>2021-11-06T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -85,7 +85,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T16:57:54</x:v>
+        <x:v>2021-11-05T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -96,7 +96,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T16:57:54</x:v>
+        <x:v>2021-11-04T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -107,7 +107,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T16:57:54</x:v>
+        <x:v>2021-11-03T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -118,7 +118,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T16:57:54</x:v>
+        <x:v>2021-11-02T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -129,7 +129,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T16:57:54</x:v>
+        <x:v>2021-11-01T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -140,7 +140,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T16:57:54</x:v>
+        <x:v>2021-10-31T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -151,7 +151,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T16:57:54</x:v>
+        <x:v>2021-10-30T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -162,7 +162,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T16:57:54</x:v>
+        <x:v>2021-10-29T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -173,7 +173,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T16:57:54</x:v>
+        <x:v>2021-10-28T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -184,7 +184,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-26T16:57:54</x:v>
+        <x:v>2021-10-27T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -195,7 +195,7 @@
         <x:v>12000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-25T16:57:54</x:v>
+        <x:v>2021-10-26T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -206,7 +206,7 @@
         <x:v>13000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-24T16:57:54</x:v>
+        <x:v>2021-10-25T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -217,7 +217,7 @@
         <x:v>14000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-23T16:57:54</x:v>
+        <x:v>2021-10-24T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -228,7 +228,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-22T16:57:54</x:v>
+        <x:v>2021-10-23T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -239,7 +239,7 @@
         <x:v>16000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-21T16:57:54</x:v>
+        <x:v>2021-10-22T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -250,7 +250,7 @@
         <x:v>17000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-20T16:57:54</x:v>
+        <x:v>2021-10-21T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -261,7 +261,7 @@
         <x:v>18000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-19T16:57:54</x:v>
+        <x:v>2021-10-20T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -272,7 +272,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-18T16:57:54</x:v>
+        <x:v>2021-10-19T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -283,7 +283,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-17T16:57:54</x:v>
+        <x:v>2021-10-18T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -294,7 +294,7 @@
         <x:v>21000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-16T16:57:54</x:v>
+        <x:v>2021-10-17T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
@@ -305,7 +305,7 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-15T16:57:54</x:v>
+        <x:v>2021-10-16T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
@@ -316,7 +316,7 @@
         <x:v>23000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-14T16:57:54</x:v>
+        <x:v>2021-10-15T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
@@ -327,7 +327,7 @@
         <x:v>24000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-13T16:57:54</x:v>
+        <x:v>2021-10-14T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
@@ -338,7 +338,7 @@
         <x:v>25000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-12T16:57:54</x:v>
+        <x:v>2021-10-13T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
@@ -349,7 +349,7 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-11T16:57:54</x:v>
+        <x:v>2021-10-12T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
@@ -360,7 +360,7 @@
         <x:v>27000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-10T16:57:54</x:v>
+        <x:v>2021-10-11T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
@@ -371,7 +371,7 @@
         <x:v>28000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-09T16:57:54</x:v>
+        <x:v>2021-10-10T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
@@ -382,7 +382,7 @@
         <x:v>29000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-08T16:57:54</x:v>
+        <x:v>2021-10-09T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
@@ -393,7 +393,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-07T16:57:54</x:v>
+        <x:v>2021-10-08T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
@@ -404,7 +404,7 @@
         <x:v>31000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-06T16:57:54</x:v>
+        <x:v>2021-10-07T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
@@ -415,7 +415,7 @@
         <x:v>32000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-05T16:57:54</x:v>
+        <x:v>2021-10-06T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
@@ -426,7 +426,7 @@
         <x:v>33000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-04T16:57:54</x:v>
+        <x:v>2021-10-05T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
@@ -437,7 +437,7 @@
         <x:v>34000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-03T16:57:54</x:v>
+        <x:v>2021-10-04T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
@@ -448,7 +448,7 @@
         <x:v>35000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-02T16:57:54</x:v>
+        <x:v>2021-10-03T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
@@ -459,7 +459,7 @@
         <x:v>36000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-01T16:57:54</x:v>
+        <x:v>2021-10-02T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
@@ -470,7 +470,7 @@
         <x:v>37000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-30T16:57:54</x:v>
+        <x:v>2021-10-01T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
@@ -481,7 +481,7 @@
         <x:v>38000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-29T16:57:54</x:v>
+        <x:v>2021-09-30T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
@@ -492,7 +492,7 @@
         <x:v>39000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-28T16:57:54</x:v>
+        <x:v>2021-09-29T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
@@ -503,7 +503,7 @@
         <x:v>40000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-27T16:57:54</x:v>
+        <x:v>2021-09-28T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
@@ -514,7 +514,7 @@
         <x:v>41000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-26T16:57:54</x:v>
+        <x:v>2021-09-27T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
@@ -525,7 +525,7 @@
         <x:v>42000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-25T16:57:54</x:v>
+        <x:v>2021-09-26T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="44">
@@ -536,7 +536,7 @@
         <x:v>43000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-24T16:57:54</x:v>
+        <x:v>2021-09-25T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
@@ -547,7 +547,7 @@
         <x:v>44000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-23T16:57:54</x:v>
+        <x:v>2021-09-24T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
@@ -558,7 +558,7 @@
         <x:v>45000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-22T16:57:54</x:v>
+        <x:v>2021-09-23T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="47">
@@ -569,7 +569,7 @@
         <x:v>46000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-21T16:57:54</x:v>
+        <x:v>2021-09-22T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="48">
@@ -580,7 +580,7 @@
         <x:v>47000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-20T16:57:54</x:v>
+        <x:v>2021-09-21T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="49">
@@ -591,7 +591,7 @@
         <x:v>48000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-19T16:57:54</x:v>
+        <x:v>2021-09-20T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="50">
@@ -602,7 +602,7 @@
         <x:v>49000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-18T16:57:54</x:v>
+        <x:v>2021-09-19T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="51">
@@ -613,7 +613,7 @@
         <x:v>50000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-17T16:57:54</x:v>
+        <x:v>2021-09-18T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="52">
@@ -624,7 +624,7 @@
         <x:v>51000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-16T16:57:54</x:v>
+        <x:v>2021-09-17T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="53">
@@ -635,7 +635,7 @@
         <x:v>52000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-15T16:57:54</x:v>
+        <x:v>2021-09-16T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="54">
@@ -646,7 +646,7 @@
         <x:v>53000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-14T16:57:54</x:v>
+        <x:v>2021-09-15T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="55">
@@ -657,7 +657,7 @@
         <x:v>54000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-13T16:57:54</x:v>
+        <x:v>2021-09-14T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="56">
@@ -668,7 +668,7 @@
         <x:v>55000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-12T16:57:54</x:v>
+        <x:v>2021-09-13T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="57">
@@ -679,7 +679,7 @@
         <x:v>56000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-11T16:57:54</x:v>
+        <x:v>2021-09-12T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="58">
@@ -690,7 +690,7 @@
         <x:v>57000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-10T16:57:54</x:v>
+        <x:v>2021-09-11T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="59">
@@ -701,7 +701,7 @@
         <x:v>58000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-09T16:57:54</x:v>
+        <x:v>2021-09-10T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="60">
@@ -712,7 +712,7 @@
         <x:v>59000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-08T16:57:54</x:v>
+        <x:v>2021-09-09T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="61">
@@ -723,7 +723,7 @@
         <x:v>60000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-07T16:57:54</x:v>
+        <x:v>2021-09-08T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="62">
@@ -734,7 +734,7 @@
         <x:v>61000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-06T16:57:54</x:v>
+        <x:v>2021-09-07T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="63">
@@ -745,7 +745,7 @@
         <x:v>62000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-05T16:57:54</x:v>
+        <x:v>2021-09-06T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="64">
@@ -756,7 +756,7 @@
         <x:v>63000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-04T16:57:54</x:v>
+        <x:v>2021-09-05T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="65">
@@ -767,7 +767,7 @@
         <x:v>64000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-03T16:57:54</x:v>
+        <x:v>2021-09-04T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="66">
@@ -778,7 +778,7 @@
         <x:v>65000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-02T16:57:54</x:v>
+        <x:v>2021-09-03T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="67">
@@ -789,7 +789,7 @@
         <x:v>66000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-09-01T16:57:54</x:v>
+        <x:v>2021-09-02T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="68">
@@ -800,7 +800,7 @@
         <x:v>67000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-31T16:57:54</x:v>
+        <x:v>2021-09-01T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="69">
@@ -811,7 +811,7 @@
         <x:v>68000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-30T16:57:54</x:v>
+        <x:v>2021-08-31T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="70">
@@ -822,7 +822,7 @@
         <x:v>69000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-29T16:57:54</x:v>
+        <x:v>2021-08-30T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="71">
@@ -833,7 +833,7 @@
         <x:v>70000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-28T16:57:54</x:v>
+        <x:v>2021-08-29T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="72">
@@ -844,7 +844,7 @@
         <x:v>71000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-27T16:57:54</x:v>
+        <x:v>2021-08-28T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="73">
@@ -855,7 +855,7 @@
         <x:v>72000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-26T16:57:54</x:v>
+        <x:v>2021-08-27T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="74">
@@ -866,7 +866,7 @@
         <x:v>73000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-25T16:57:54</x:v>
+        <x:v>2021-08-26T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="75">
@@ -877,7 +877,7 @@
         <x:v>74000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-24T16:57:54</x:v>
+        <x:v>2021-08-25T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="76">
@@ -888,7 +888,7 @@
         <x:v>75000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-23T16:57:54</x:v>
+        <x:v>2021-08-24T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="77">
@@ -899,7 +899,7 @@
         <x:v>76000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-22T16:57:54</x:v>
+        <x:v>2021-08-23T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="78">
@@ -910,7 +910,7 @@
         <x:v>77000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-21T16:57:54</x:v>
+        <x:v>2021-08-22T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="79">
@@ -921,7 +921,7 @@
         <x:v>78000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-20T16:57:54</x:v>
+        <x:v>2021-08-21T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="80">
@@ -932,7 +932,7 @@
         <x:v>79000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-19T16:57:54</x:v>
+        <x:v>2021-08-20T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="81">
@@ -943,7 +943,7 @@
         <x:v>80000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-18T16:57:54</x:v>
+        <x:v>2021-08-19T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="82">
@@ -954,7 +954,7 @@
         <x:v>81000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-17T16:57:54</x:v>
+        <x:v>2021-08-18T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="83">
@@ -965,7 +965,7 @@
         <x:v>82000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-16T16:57:54</x:v>
+        <x:v>2021-08-17T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="84">
@@ -976,7 +976,7 @@
         <x:v>83000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-15T16:57:54</x:v>
+        <x:v>2021-08-16T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="85">
@@ -987,7 +987,7 @@
         <x:v>84000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-14T16:57:54</x:v>
+        <x:v>2021-08-15T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="86">
@@ -998,7 +998,7 @@
         <x:v>85000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-13T16:57:54</x:v>
+        <x:v>2021-08-14T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="87">
@@ -1009,7 +1009,7 @@
         <x:v>86000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-12T16:57:54</x:v>
+        <x:v>2021-08-13T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="88">
@@ -1020,7 +1020,7 @@
         <x:v>87000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-11T16:57:54</x:v>
+        <x:v>2021-08-12T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="89">
@@ -1031,7 +1031,7 @@
         <x:v>88000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-10T16:57:54</x:v>
+        <x:v>2021-08-11T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="90">
@@ -1042,7 +1042,7 @@
         <x:v>89000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-09T16:57:54</x:v>
+        <x:v>2021-08-10T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="91">
@@ -1053,7 +1053,7 @@
         <x:v>90000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-08T16:57:54</x:v>
+        <x:v>2021-08-09T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="92">
@@ -1064,7 +1064,7 @@
         <x:v>91000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-07T16:57:54</x:v>
+        <x:v>2021-08-08T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="93">
@@ -1075,7 +1075,7 @@
         <x:v>92000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-06T16:57:54</x:v>
+        <x:v>2021-08-07T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="94">
@@ -1086,7 +1086,7 @@
         <x:v>93000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-05T16:57:54</x:v>
+        <x:v>2021-08-06T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="95">
@@ -1097,7 +1097,7 @@
         <x:v>94000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-04T16:57:54</x:v>
+        <x:v>2021-08-05T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="96">
@@ -1108,7 +1108,7 @@
         <x:v>95000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-03T16:57:54</x:v>
+        <x:v>2021-08-04T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="97">
@@ -1119,7 +1119,7 @@
         <x:v>96000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-02T16:57:54</x:v>
+        <x:v>2021-08-03T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="98">
@@ -1130,7 +1130,7 @@
         <x:v>97000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-08-01T16:57:54</x:v>
+        <x:v>2021-08-02T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="99">
@@ -1141,7 +1141,7 @@
         <x:v>98000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-07-31T16:57:54</x:v>
+        <x:v>2021-08-01T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="100">
@@ -1152,7 +1152,7 @@
         <x:v>99000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-07-30T16:57:54</x:v>
+        <x:v>2021-07-31T13:51:15</x:v>
       </x:c>
     </x:row>
     <x:row r="101">
@@ -1163,7 +1163,7 @@
         <x:v>100000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-07-29T16:57:54</x:v>
+        <x:v>2021-07-30T13:51:15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example6.xlsx
+++ b/Examples/example6.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="Rcfe2370861f246d4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table2" sheetId="2" r:id="R4432191835144f2e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table3" sheetId="3" r:id="R8e2bce847d4b4c1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="R1192b5895f0f4c8a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table2" sheetId="2" r:id="Rb7895620923d4447"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table3" sheetId="3" r:id="Rc0601658624a4870"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -76,7 +76,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T16:13:06</x:v>
+        <x:v>2021-11-06T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -87,7 +87,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T16:13:06</x:v>
+        <x:v>2021-11-05T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -98,7 +98,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T16:13:06</x:v>
+        <x:v>2021-11-04T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -109,7 +109,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T16:13:06</x:v>
+        <x:v>2021-11-03T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -120,7 +120,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T16:13:06</x:v>
+        <x:v>2021-11-02T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -131,7 +131,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T16:13:06</x:v>
+        <x:v>2021-11-01T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -142,7 +142,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T16:13:06</x:v>
+        <x:v>2021-10-31T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -153,7 +153,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T16:13:06</x:v>
+        <x:v>2021-10-30T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -164,7 +164,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T16:13:06</x:v>
+        <x:v>2021-10-29T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -175,7 +175,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T16:13:06</x:v>
+        <x:v>2021-10-28T21:06:43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -210,7 +210,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T16:13:06</x:v>
+        <x:v>2021-11-06T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -221,7 +221,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T16:13:06</x:v>
+        <x:v>2021-11-05T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -232,7 +232,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T16:13:06</x:v>
+        <x:v>2021-11-04T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -243,7 +243,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T16:13:06</x:v>
+        <x:v>2021-11-03T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -254,7 +254,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T16:13:06</x:v>
+        <x:v>2021-11-02T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -265,7 +265,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T16:13:06</x:v>
+        <x:v>2021-11-01T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -276,7 +276,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T16:13:06</x:v>
+        <x:v>2021-10-31T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -287,7 +287,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T16:13:06</x:v>
+        <x:v>2021-10-30T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -298,7 +298,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T16:13:06</x:v>
+        <x:v>2021-10-29T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -309,7 +309,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T16:13:06</x:v>
+        <x:v>2021-10-28T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -320,7 +320,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T16:13:06</x:v>
+        <x:v>2021-10-27T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -331,7 +331,7 @@
         <x:v>12000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-26T16:13:06</x:v>
+        <x:v>2021-10-26T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -342,7 +342,7 @@
         <x:v>13000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-25T16:13:06</x:v>
+        <x:v>2021-10-25T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -353,7 +353,7 @@
         <x:v>14000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-24T16:13:06</x:v>
+        <x:v>2021-10-24T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -364,7 +364,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-23T16:13:06</x:v>
+        <x:v>2021-10-23T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -375,7 +375,7 @@
         <x:v>16000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-22T16:13:06</x:v>
+        <x:v>2021-10-22T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -386,7 +386,7 @@
         <x:v>17000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-21T16:13:06</x:v>
+        <x:v>2021-10-21T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -397,7 +397,7 @@
         <x:v>18000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-20T16:13:06</x:v>
+        <x:v>2021-10-20T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -408,7 +408,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-19T16:13:06</x:v>
+        <x:v>2021-10-19T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -419,7 +419,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-18T16:13:06</x:v>
+        <x:v>2021-10-18T21:06:43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -454,7 +454,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T16:13:06</x:v>
+        <x:v>2021-11-06T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -465,7 +465,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T16:13:06</x:v>
+        <x:v>2021-11-05T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -476,7 +476,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T16:13:06</x:v>
+        <x:v>2021-11-04T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -487,7 +487,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T16:13:06</x:v>
+        <x:v>2021-11-03T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -498,7 +498,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T16:13:06</x:v>
+        <x:v>2021-11-02T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -509,7 +509,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T16:13:06</x:v>
+        <x:v>2021-11-01T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -520,7 +520,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T16:13:06</x:v>
+        <x:v>2021-10-31T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -531,7 +531,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T16:13:06</x:v>
+        <x:v>2021-10-30T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -542,7 +542,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T16:13:06</x:v>
+        <x:v>2021-10-29T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -553,7 +553,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T16:13:06</x:v>
+        <x:v>2021-10-28T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -564,7 +564,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T16:13:06</x:v>
+        <x:v>2021-10-27T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -575,7 +575,7 @@
         <x:v>12000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-26T16:13:06</x:v>
+        <x:v>2021-10-26T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -586,7 +586,7 @@
         <x:v>13000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-25T16:13:06</x:v>
+        <x:v>2021-10-25T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -597,7 +597,7 @@
         <x:v>14000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-24T16:13:06</x:v>
+        <x:v>2021-10-24T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -608,7 +608,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-23T16:13:06</x:v>
+        <x:v>2021-10-23T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -619,7 +619,7 @@
         <x:v>16000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-22T16:13:06</x:v>
+        <x:v>2021-10-22T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -630,7 +630,7 @@
         <x:v>17000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-21T16:13:06</x:v>
+        <x:v>2021-10-21T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -641,7 +641,7 @@
         <x:v>18000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-20T16:13:06</x:v>
+        <x:v>2021-10-20T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -652,7 +652,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-19T16:13:06</x:v>
+        <x:v>2021-10-19T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -663,7 +663,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-18T16:13:06</x:v>
+        <x:v>2021-10-18T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -674,7 +674,7 @@
         <x:v>21000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-17T16:13:06</x:v>
+        <x:v>2021-10-17T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
@@ -685,7 +685,7 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-16T16:13:06</x:v>
+        <x:v>2021-10-16T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
@@ -696,7 +696,7 @@
         <x:v>23000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-15T16:13:06</x:v>
+        <x:v>2021-10-15T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
@@ -707,7 +707,7 @@
         <x:v>24000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-14T16:13:06</x:v>
+        <x:v>2021-10-14T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
@@ -718,7 +718,7 @@
         <x:v>25000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-13T16:13:06</x:v>
+        <x:v>2021-10-13T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
@@ -729,7 +729,7 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-12T16:13:06</x:v>
+        <x:v>2021-10-12T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
@@ -740,7 +740,7 @@
         <x:v>27000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-11T16:13:06</x:v>
+        <x:v>2021-10-11T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
@@ -751,7 +751,7 @@
         <x:v>28000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-10T16:13:06</x:v>
+        <x:v>2021-10-10T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
@@ -762,7 +762,7 @@
         <x:v>29000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-09T16:13:06</x:v>
+        <x:v>2021-10-09T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
@@ -773,7 +773,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-08T16:13:06</x:v>
+        <x:v>2021-10-08T21:06:43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example6.xlsx
+++ b/Examples/example6.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="R1192b5895f0f4c8a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table2" sheetId="2" r:id="Rb7895620923d4447"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table3" sheetId="3" r:id="Rc0601658624a4870"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="R29fef0a7bef04006"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table2" sheetId="2" r:id="Rb6e8f45bdf234b4f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table3" sheetId="3" r:id="R6aba08d32ca241a1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -76,7 +76,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T21:06:43</x:v>
+        <x:v>2021-11-06T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -87,7 +87,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T21:06:43</x:v>
+        <x:v>2021-11-05T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -98,7 +98,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T21:06:43</x:v>
+        <x:v>2021-11-04T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -109,7 +109,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T21:06:43</x:v>
+        <x:v>2021-11-03T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -120,7 +120,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T21:06:43</x:v>
+        <x:v>2021-11-02T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -131,7 +131,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T21:06:43</x:v>
+        <x:v>2021-11-01T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -142,7 +142,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T21:06:43</x:v>
+        <x:v>2021-10-31T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -153,7 +153,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T21:06:43</x:v>
+        <x:v>2021-10-30T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -164,7 +164,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T21:06:43</x:v>
+        <x:v>2021-10-29T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -175,7 +175,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T21:06:43</x:v>
+        <x:v>2021-10-28T22:09:14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -210,7 +210,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T21:06:43</x:v>
+        <x:v>2021-11-06T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -221,7 +221,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T21:06:43</x:v>
+        <x:v>2021-11-05T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -232,7 +232,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T21:06:43</x:v>
+        <x:v>2021-11-04T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -243,7 +243,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T21:06:43</x:v>
+        <x:v>2021-11-03T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -254,7 +254,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T21:06:43</x:v>
+        <x:v>2021-11-02T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -265,7 +265,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T21:06:43</x:v>
+        <x:v>2021-11-01T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -276,7 +276,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T21:06:43</x:v>
+        <x:v>2021-10-31T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -287,7 +287,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T21:06:43</x:v>
+        <x:v>2021-10-30T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -298,7 +298,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T21:06:43</x:v>
+        <x:v>2021-10-29T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -309,7 +309,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T21:06:43</x:v>
+        <x:v>2021-10-28T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -320,7 +320,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T21:06:43</x:v>
+        <x:v>2021-10-27T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -331,7 +331,7 @@
         <x:v>12000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-26T21:06:43</x:v>
+        <x:v>2021-10-26T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -342,7 +342,7 @@
         <x:v>13000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-25T21:06:43</x:v>
+        <x:v>2021-10-25T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -353,7 +353,7 @@
         <x:v>14000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-24T21:06:43</x:v>
+        <x:v>2021-10-24T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -364,7 +364,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-23T21:06:43</x:v>
+        <x:v>2021-10-23T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -375,7 +375,7 @@
         <x:v>16000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-22T21:06:43</x:v>
+        <x:v>2021-10-22T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -386,7 +386,7 @@
         <x:v>17000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-21T21:06:43</x:v>
+        <x:v>2021-10-21T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -397,7 +397,7 @@
         <x:v>18000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-20T21:06:43</x:v>
+        <x:v>2021-10-20T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -408,7 +408,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-19T21:06:43</x:v>
+        <x:v>2021-10-19T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -419,7 +419,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-18T21:06:43</x:v>
+        <x:v>2021-10-18T22:09:14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -454,7 +454,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T21:06:43</x:v>
+        <x:v>2021-11-06T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -465,7 +465,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T21:06:43</x:v>
+        <x:v>2021-11-05T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -476,7 +476,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T21:06:43</x:v>
+        <x:v>2021-11-04T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -487,7 +487,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T21:06:43</x:v>
+        <x:v>2021-11-03T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -498,7 +498,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T21:06:43</x:v>
+        <x:v>2021-11-02T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -509,7 +509,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T21:06:43</x:v>
+        <x:v>2021-11-01T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -520,7 +520,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T21:06:43</x:v>
+        <x:v>2021-10-31T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -531,7 +531,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T21:06:43</x:v>
+        <x:v>2021-10-30T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -542,7 +542,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T21:06:43</x:v>
+        <x:v>2021-10-29T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -553,7 +553,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T21:06:43</x:v>
+        <x:v>2021-10-28T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -564,7 +564,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T21:06:43</x:v>
+        <x:v>2021-10-27T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -575,7 +575,7 @@
         <x:v>12000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-26T21:06:43</x:v>
+        <x:v>2021-10-26T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -586,7 +586,7 @@
         <x:v>13000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-25T21:06:43</x:v>
+        <x:v>2021-10-25T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -597,7 +597,7 @@
         <x:v>14000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-24T21:06:43</x:v>
+        <x:v>2021-10-24T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -608,7 +608,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-23T21:06:43</x:v>
+        <x:v>2021-10-23T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -619,7 +619,7 @@
         <x:v>16000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-22T21:06:43</x:v>
+        <x:v>2021-10-22T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -630,7 +630,7 @@
         <x:v>17000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-21T21:06:43</x:v>
+        <x:v>2021-10-21T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -641,7 +641,7 @@
         <x:v>18000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-20T21:06:43</x:v>
+        <x:v>2021-10-20T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -652,7 +652,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-19T21:06:43</x:v>
+        <x:v>2021-10-19T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -663,7 +663,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-18T21:06:43</x:v>
+        <x:v>2021-10-18T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -674,7 +674,7 @@
         <x:v>21000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-17T21:06:43</x:v>
+        <x:v>2021-10-17T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
@@ -685,7 +685,7 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-16T21:06:43</x:v>
+        <x:v>2021-10-16T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
@@ -696,7 +696,7 @@
         <x:v>23000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-15T21:06:43</x:v>
+        <x:v>2021-10-15T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
@@ -707,7 +707,7 @@
         <x:v>24000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-14T21:06:43</x:v>
+        <x:v>2021-10-14T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
@@ -718,7 +718,7 @@
         <x:v>25000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-13T21:06:43</x:v>
+        <x:v>2021-10-13T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
@@ -729,7 +729,7 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-12T21:06:43</x:v>
+        <x:v>2021-10-12T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
@@ -740,7 +740,7 @@
         <x:v>27000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-11T21:06:43</x:v>
+        <x:v>2021-10-11T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
@@ -751,7 +751,7 @@
         <x:v>28000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-10T21:06:43</x:v>
+        <x:v>2021-10-10T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
@@ -762,7 +762,7 @@
         <x:v>29000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-09T21:06:43</x:v>
+        <x:v>2021-10-09T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
@@ -773,7 +773,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-08T21:06:43</x:v>
+        <x:v>2021-10-08T22:09:14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example6.xlsx
+++ b/Examples/example6.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="R29fef0a7bef04006"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table2" sheetId="2" r:id="Rb6e8f45bdf234b4f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table3" sheetId="3" r:id="R6aba08d32ca241a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="R90e9ffc9942743bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table2" sheetId="2" r:id="Rde495b5189114412"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table3" sheetId="3" r:id="Rd30963348ec545d2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -76,7 +76,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T22:09:14</x:v>
+        <x:v>2021-11-12T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -87,7 +87,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T22:09:14</x:v>
+        <x:v>2021-11-11T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -98,7 +98,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T22:09:14</x:v>
+        <x:v>2021-11-10T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -109,7 +109,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T22:09:14</x:v>
+        <x:v>2021-11-09T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -120,7 +120,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T22:09:14</x:v>
+        <x:v>2021-11-08T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -131,7 +131,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T22:09:14</x:v>
+        <x:v>2021-11-07T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -142,7 +142,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T22:09:14</x:v>
+        <x:v>2021-11-06T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -153,7 +153,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T22:09:14</x:v>
+        <x:v>2021-11-05T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -164,7 +164,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T22:09:14</x:v>
+        <x:v>2021-11-04T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -175,7 +175,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T22:09:14</x:v>
+        <x:v>2021-11-03T10:49:38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -210,7 +210,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T22:09:14</x:v>
+        <x:v>2021-11-12T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -221,7 +221,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T22:09:14</x:v>
+        <x:v>2021-11-11T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -232,7 +232,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T22:09:14</x:v>
+        <x:v>2021-11-10T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -243,7 +243,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T22:09:14</x:v>
+        <x:v>2021-11-09T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -254,7 +254,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T22:09:14</x:v>
+        <x:v>2021-11-08T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -265,7 +265,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T22:09:14</x:v>
+        <x:v>2021-11-07T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -276,7 +276,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T22:09:14</x:v>
+        <x:v>2021-11-06T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -287,7 +287,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T22:09:14</x:v>
+        <x:v>2021-11-05T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -298,7 +298,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T22:09:14</x:v>
+        <x:v>2021-11-04T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -309,7 +309,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T22:09:14</x:v>
+        <x:v>2021-11-03T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -320,7 +320,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T22:09:14</x:v>
+        <x:v>2021-11-02T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -331,7 +331,7 @@
         <x:v>12000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-26T22:09:14</x:v>
+        <x:v>2021-11-01T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -342,7 +342,7 @@
         <x:v>13000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-25T22:09:14</x:v>
+        <x:v>2021-10-31T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -353,7 +353,7 @@
         <x:v>14000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-24T22:09:14</x:v>
+        <x:v>2021-10-30T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -364,7 +364,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-23T22:09:14</x:v>
+        <x:v>2021-10-29T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -375,7 +375,7 @@
         <x:v>16000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-22T22:09:14</x:v>
+        <x:v>2021-10-28T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -386,7 +386,7 @@
         <x:v>17000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-21T22:09:14</x:v>
+        <x:v>2021-10-27T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -397,7 +397,7 @@
         <x:v>18000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-20T22:09:14</x:v>
+        <x:v>2021-10-26T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -408,7 +408,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-19T22:09:14</x:v>
+        <x:v>2021-10-25T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -419,7 +419,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-18T22:09:14</x:v>
+        <x:v>2021-10-24T10:49:38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -454,7 +454,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T22:09:14</x:v>
+        <x:v>2021-11-12T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -465,7 +465,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T22:09:14</x:v>
+        <x:v>2021-11-11T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -476,7 +476,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T22:09:14</x:v>
+        <x:v>2021-11-10T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -487,7 +487,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T22:09:14</x:v>
+        <x:v>2021-11-09T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -498,7 +498,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T22:09:14</x:v>
+        <x:v>2021-11-08T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -509,7 +509,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T22:09:14</x:v>
+        <x:v>2021-11-07T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -520,7 +520,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T22:09:14</x:v>
+        <x:v>2021-11-06T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -531,7 +531,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T22:09:14</x:v>
+        <x:v>2021-11-05T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -542,7 +542,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T22:09:14</x:v>
+        <x:v>2021-11-04T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -553,7 +553,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T22:09:14</x:v>
+        <x:v>2021-11-03T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -564,7 +564,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T22:09:14</x:v>
+        <x:v>2021-11-02T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -575,7 +575,7 @@
         <x:v>12000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-26T22:09:14</x:v>
+        <x:v>2021-11-01T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -586,7 +586,7 @@
         <x:v>13000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-25T22:09:14</x:v>
+        <x:v>2021-10-31T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -597,7 +597,7 @@
         <x:v>14000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-24T22:09:14</x:v>
+        <x:v>2021-10-30T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -608,7 +608,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-23T22:09:14</x:v>
+        <x:v>2021-10-29T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -619,7 +619,7 @@
         <x:v>16000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-22T22:09:14</x:v>
+        <x:v>2021-10-28T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -630,7 +630,7 @@
         <x:v>17000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-21T22:09:14</x:v>
+        <x:v>2021-10-27T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -641,7 +641,7 @@
         <x:v>18000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-20T22:09:14</x:v>
+        <x:v>2021-10-26T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -652,7 +652,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-19T22:09:14</x:v>
+        <x:v>2021-10-25T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -663,7 +663,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-18T22:09:14</x:v>
+        <x:v>2021-10-24T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -674,7 +674,7 @@
         <x:v>21000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-17T22:09:14</x:v>
+        <x:v>2021-10-23T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
@@ -685,7 +685,7 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-16T22:09:14</x:v>
+        <x:v>2021-10-22T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
@@ -696,7 +696,7 @@
         <x:v>23000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-15T22:09:14</x:v>
+        <x:v>2021-10-21T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
@@ -707,7 +707,7 @@
         <x:v>24000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-14T22:09:14</x:v>
+        <x:v>2021-10-20T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
@@ -718,7 +718,7 @@
         <x:v>25000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-13T22:09:14</x:v>
+        <x:v>2021-10-19T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
@@ -729,7 +729,7 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-12T22:09:14</x:v>
+        <x:v>2021-10-18T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
@@ -740,7 +740,7 @@
         <x:v>27000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-11T22:09:14</x:v>
+        <x:v>2021-10-17T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
@@ -751,7 +751,7 @@
         <x:v>28000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-10T22:09:14</x:v>
+        <x:v>2021-10-16T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
@@ -762,7 +762,7 @@
         <x:v>29000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-09T22:09:14</x:v>
+        <x:v>2021-10-15T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
@@ -773,7 +773,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-08T22:09:14</x:v>
+        <x:v>2021-10-14T10:49:38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example6.xlsx
+++ b/Examples/example6.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="R90e9ffc9942743bc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table2" sheetId="2" r:id="Rde495b5189114412"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table3" sheetId="3" r:id="Rd30963348ec545d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="R374a2479a244435e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table2" sheetId="2" r:id="Rb4f258aca85e4b93"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table3" sheetId="3" r:id="Ra8e71ca49c8043b2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,11 +12,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="0"/>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font/>
     <x:font>
       <x:b/>
       <x:color rgb="FFFFFFFF"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:color theme="10"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -39,12 +43,13 @@
   <x:cellStyleXfs count="1">
     <x:xf/>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf/>
     <x:xf fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <x:xf fontId="2" xfId="0"/>
   </x:cellXfs>
 </x:styleSheet>
 </file>
@@ -76,7 +81,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-12T10:49:38</x:v>
+        <x:v>2022-01-07T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -87,7 +92,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-11T10:49:38</x:v>
+        <x:v>2022-01-06T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -98,7 +103,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-10T10:49:38</x:v>
+        <x:v>2022-01-05T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -109,7 +114,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-09T10:49:38</x:v>
+        <x:v>2022-01-04T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -120,7 +125,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-08T10:49:38</x:v>
+        <x:v>2022-01-03T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -131,7 +136,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-07T10:49:38</x:v>
+        <x:v>2022-01-02T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -142,7 +147,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T10:49:38</x:v>
+        <x:v>2022-01-01T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -153,7 +158,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T10:49:38</x:v>
+        <x:v>2021-12-31T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -164,7 +169,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T10:49:38</x:v>
+        <x:v>2021-12-30T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -175,7 +180,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T10:49:38</x:v>
+        <x:v>2021-12-29T21:16:39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -210,7 +215,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-12T10:49:38</x:v>
+        <x:v>2022-01-07T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -221,7 +226,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-11T10:49:38</x:v>
+        <x:v>2022-01-06T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -232,7 +237,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-10T10:49:38</x:v>
+        <x:v>2022-01-05T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -243,7 +248,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-09T10:49:38</x:v>
+        <x:v>2022-01-04T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -254,7 +259,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-08T10:49:38</x:v>
+        <x:v>2022-01-03T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -265,7 +270,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-07T10:49:38</x:v>
+        <x:v>2022-01-02T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -276,7 +281,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T10:49:38</x:v>
+        <x:v>2022-01-01T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -287,7 +292,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T10:49:38</x:v>
+        <x:v>2021-12-31T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -298,7 +303,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T10:49:38</x:v>
+        <x:v>2021-12-30T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -309,7 +314,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T10:49:38</x:v>
+        <x:v>2021-12-29T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -320,7 +325,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T10:49:38</x:v>
+        <x:v>2021-12-28T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -331,7 +336,7 @@
         <x:v>12000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T10:49:38</x:v>
+        <x:v>2021-12-27T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -342,7 +347,7 @@
         <x:v>13000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T10:49:38</x:v>
+        <x:v>2021-12-26T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -353,7 +358,7 @@
         <x:v>14000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T10:49:38</x:v>
+        <x:v>2021-12-25T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -364,7 +369,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T10:49:38</x:v>
+        <x:v>2021-12-24T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -375,7 +380,7 @@
         <x:v>16000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T10:49:38</x:v>
+        <x:v>2021-12-23T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -386,7 +391,7 @@
         <x:v>17000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T10:49:38</x:v>
+        <x:v>2021-12-22T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -397,7 +402,7 @@
         <x:v>18000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-26T10:49:38</x:v>
+        <x:v>2021-12-21T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -408,7 +413,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-25T10:49:38</x:v>
+        <x:v>2021-12-20T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -419,7 +424,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-24T10:49:38</x:v>
+        <x:v>2021-12-19T21:16:39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -454,7 +459,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-12T10:49:38</x:v>
+        <x:v>2022-01-07T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -465,7 +470,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-11T10:49:38</x:v>
+        <x:v>2022-01-06T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -476,7 +481,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-10T10:49:38</x:v>
+        <x:v>2022-01-05T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -487,7 +492,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-09T10:49:38</x:v>
+        <x:v>2022-01-04T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -498,7 +503,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-08T10:49:38</x:v>
+        <x:v>2022-01-03T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -509,7 +514,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-07T10:49:38</x:v>
+        <x:v>2022-01-02T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -520,7 +525,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T10:49:38</x:v>
+        <x:v>2022-01-01T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -531,7 +536,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T10:49:38</x:v>
+        <x:v>2021-12-31T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -542,7 +547,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T10:49:38</x:v>
+        <x:v>2021-12-30T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -553,7 +558,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T10:49:38</x:v>
+        <x:v>2021-12-29T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -564,7 +569,7 @@
         <x:v>11000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T10:49:38</x:v>
+        <x:v>2021-12-28T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -575,7 +580,7 @@
         <x:v>12000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T10:49:38</x:v>
+        <x:v>2021-12-27T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -586,7 +591,7 @@
         <x:v>13000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T10:49:38</x:v>
+        <x:v>2021-12-26T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -597,7 +602,7 @@
         <x:v>14000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T10:49:38</x:v>
+        <x:v>2021-12-25T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -608,7 +613,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T10:49:38</x:v>
+        <x:v>2021-12-24T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -619,7 +624,7 @@
         <x:v>16000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T10:49:38</x:v>
+        <x:v>2021-12-23T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -630,7 +635,7 @@
         <x:v>17000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T10:49:38</x:v>
+        <x:v>2021-12-22T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -641,7 +646,7 @@
         <x:v>18000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-26T10:49:38</x:v>
+        <x:v>2021-12-21T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -652,7 +657,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-25T10:49:38</x:v>
+        <x:v>2021-12-20T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -663,7 +668,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-24T10:49:38</x:v>
+        <x:v>2021-12-19T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -674,7 +679,7 @@
         <x:v>21000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-23T10:49:38</x:v>
+        <x:v>2021-12-18T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
@@ -685,7 +690,7 @@
         <x:v>22000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-22T10:49:38</x:v>
+        <x:v>2021-12-17T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
@@ -696,7 +701,7 @@
         <x:v>23000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-21T10:49:38</x:v>
+        <x:v>2021-12-16T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
@@ -707,7 +712,7 @@
         <x:v>24000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-20T10:49:38</x:v>
+        <x:v>2021-12-15T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
@@ -718,7 +723,7 @@
         <x:v>25000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-19T10:49:38</x:v>
+        <x:v>2021-12-14T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
@@ -729,7 +734,7 @@
         <x:v>26000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-18T10:49:38</x:v>
+        <x:v>2021-12-13T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
@@ -740,7 +745,7 @@
         <x:v>27000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-17T10:49:38</x:v>
+        <x:v>2021-12-12T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
@@ -751,7 +756,7 @@
         <x:v>28000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-16T10:49:38</x:v>
+        <x:v>2021-12-11T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
@@ -762,7 +767,7 @@
         <x:v>29000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-15T10:49:38</x:v>
+        <x:v>2021-12-10T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
@@ -773,7 +778,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-14T10:49:38</x:v>
+        <x:v>2021-12-09T21:16:39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
